--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2890.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2890.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.207815136411928</v>
+        <v>1.922680974006653</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>2.028523921966553</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.071424722671509</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.535306453704834</v>
       </c>
       <c r="E1">
-        <v>1.20209087081474</v>
+        <v>3.659120321273804</v>
       </c>
     </row>
   </sheetData>
